--- a/Program/Other/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustCross.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustCross.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\SKL\DB\GenTables\L1-顧客管理作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F611E4-1196-4D52-9AA9-969F89B8D990}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEBBD18-4F40-4276-A0B0-37C59BD27D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -213,16 +213,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>共用代碼檔
-01: 新光金控
-02: 新光人壽
-03: 新光銀行
-04: 新光信託
-05: 保險經紀人
-06: 元富證券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CrossUse</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -259,11 +249,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Y: 同意使用
-N: 不同意使用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -274,6 +259,21 @@
   <si>
     <t xml:space="preserve">CustUKey = ,AND SubCompanyCode = </t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+01:新光金控
+02:新光人壽
+03:新光銀行
+04:新光信託
+05:保險經紀人
+06:元富證券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:同意使用
+N:不同意使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -843,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -892,7 +892,7 @@
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>30</v>
@@ -907,10 +907,10 @@
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -983,7 +983,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="16">
         <v>32</v>
@@ -1004,14 +1004,14 @@
         <v>33</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="16">
         <v>2</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -1019,20 +1019,20 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="E11" s="16">
         <v>1</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1127,7 +1127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C14" sqref="C14:C15"/>
     </sheetView>
@@ -1153,21 +1153,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
